--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,79 +43,79 @@
     <t>negative</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>fucking</t>
   </si>
   <si>
     <t>evil</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>disturbing</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fucked</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>black</t>
+    <t>serious</t>
   </si>
   <si>
     <t>fake</t>
@@ -127,112 +127,106 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>whole</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>digital</t>
-  </si>
-  <si>
     <t>right</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>real</t>
+    <t>documentary</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>twitter</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>know</t>
+    <t>dilemma</t>
   </si>
   <si>
     <t>watching</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>dilemma</t>
+    <t>…</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>watched</t>
@@ -599,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -721,10 +715,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,13 +736,13 @@
         <v>37</v>
       </c>
       <c r="K4">
-        <v>0.9399999999999999</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8421052631578947</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8787878787878788</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K8">
-        <v>0.7333333333333333</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8461538461538461</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,13 +986,13 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>0.7241379310344828</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K10">
-        <v>0.7222222222222222</v>
+        <v>0.7</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,7 +1062,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8235294117647058</v>
+        <v>0.875</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -1086,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K11">
-        <v>0.7017543859649122</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8125</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7894736842105263</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K13">
-        <v>0.6296296296296297</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7692307692307693</v>
+        <v>0.8125</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,13 +1236,13 @@
         <v>47</v>
       </c>
       <c r="K14">
-        <v>0.5833333333333334</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1262,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7647058823529411</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K15">
-        <v>0.5757575757575758</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6884057971014492</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K16">
-        <v>0.3888888888888889</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.675</v>
+        <v>0.725</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K17">
-        <v>0.3278688524590164</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L17">
-        <v>360</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>360</v>
+        <v>9</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>738</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6521739130434783</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,7 +1436,7 @@
         <v>51</v>
       </c>
       <c r="K18">
-        <v>0.3214285714285715</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L18">
         <v>9</v>
@@ -1460,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1468,13 +1462,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.65</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1486,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K19">
-        <v>0.2962962962962963</v>
+        <v>0.3078324225865209</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>338</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>338</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>38</v>
+        <v>760</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,13 +1512,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.625</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1542,13 +1536,13 @@
         <v>53</v>
       </c>
       <c r="K20">
-        <v>0.2926829268292683</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1560,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,13 +1562,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6170212765957447</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1586,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K21">
-        <v>0.2923076923076923</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1610,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1618,13 +1612,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5641025641025641</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1636,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K22">
-        <v>0.2711864406779661</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1660,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1668,13 +1662,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5428571428571428</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1686,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K23">
-        <v>0.2295081967213115</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1710,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1718,13 +1712,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5416666666666666</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1768,13 +1762,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5384615384615384</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1786,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K25">
-        <v>0.2173913043478261</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1810,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1818,13 +1812,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1836,19 +1830,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K26">
-        <v>0.2117647058823529</v>
+        <v>0.2</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1860,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1868,13 +1862,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4642857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1886,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K27">
-        <v>0.2054794520547945</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1910,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1918,13 +1912,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3571428571428572</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1936,19 +1930,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K28">
-        <v>0.1830985915492958</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1960,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1968,13 +1962,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2051282051282051</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1986,19 +1980,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K29">
-        <v>0.18</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2010,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2018,37 +2012,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.05423728813559322</v>
+        <v>0.0584192439862543</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E30">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="F30">
-        <v>0.8</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K30">
-        <v>0.1666666666666667</v>
+        <v>0.09540636042402827</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2060,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2068,13 +2062,13 @@
         <v>64</v>
       </c>
       <c r="K31">
-        <v>0.1037037037037037</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L31">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M31">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2086,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2094,13 +2088,13 @@
         <v>65</v>
       </c>
       <c r="K32">
-        <v>0.09939759036144578</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="L32">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="M32">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2112,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>598</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2120,25 +2114,25 @@
         <v>66</v>
       </c>
       <c r="K33">
-        <v>0.09565217391304348</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="L33">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>104</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2146,13 +2140,13 @@
         <v>67</v>
       </c>
       <c r="K34">
-        <v>0.093841642228739</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2164,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2172,13 +2166,13 @@
         <v>68</v>
       </c>
       <c r="K35">
-        <v>0.09187279151943463</v>
+        <v>0.07331378299120235</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2190,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>257</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2198,13 +2192,13 @@
         <v>69</v>
       </c>
       <c r="K36">
-        <v>0.08029197080291971</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2216,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>126</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2224,13 +2218,13 @@
         <v>70</v>
       </c>
       <c r="K37">
-        <v>0.07936507936507936</v>
+        <v>0.05519480519480519</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2242,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>290</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2250,25 +2244,25 @@
         <v>71</v>
       </c>
       <c r="K38">
-        <v>0.06178861788617886</v>
+        <v>0.04529616724738676</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="N38">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O38">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>577</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2276,77 +2270,25 @@
         <v>72</v>
       </c>
       <c r="K39">
-        <v>0.0594002306805075</v>
+        <v>0.03457106274007683</v>
       </c>
       <c r="L39">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="N39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K40">
-        <v>0.03157894736842105</v>
-      </c>
-      <c r="L40">
-        <v>9</v>
-      </c>
-      <c r="M40">
-        <v>12</v>
-      </c>
-      <c r="N40">
-        <v>0.75</v>
-      </c>
-      <c r="O40">
-        <v>0.25</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K41">
-        <v>0.03076923076923077</v>
-      </c>
-      <c r="L41">
-        <v>24</v>
-      </c>
-      <c r="M41">
-        <v>25</v>
-      </c>
-      <c r="N41">
-        <v>0.96</v>
-      </c>
-      <c r="O41">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
